--- a/Input/DIC/rateSheet.xlsx
+++ b/Input/DIC/rateSheet.xlsx
@@ -73,7 +73,7 @@
     <t xml:space="preserve">Primary</t>
   </si>
   <si>
-    <t xml:space="preserve">Primary – Investor</t>
+    <t xml:space="preserve">Primary - Investor</t>
   </si>
   <si>
     <t xml:space="preserve">Spouse</t>
@@ -93,7 +93,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -128,11 +128,6 @@
       <family val="1"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -176,7 +171,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -194,10 +189,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -220,8 +211,8 @@
   </sheetPr>
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I9" activeCellId="0" sqref="I9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K12" activeCellId="0" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -376,7 +367,7 @@
       <c r="H5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="4" t="s">
         <v>18</v>
       </c>
       <c r="J5" s="0" t="s">
@@ -434,7 +425,7 @@
       <c r="H7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="4" t="s">
         <v>18</v>
       </c>
       <c r="J7" s="0" t="s">
